--- a/biology/Biochimie/Acétylsérotonine_O-méthyltransférase/Acétylsérotonine_O-méthyltransférase.xlsx
+++ b/biology/Biochimie/Acétylsérotonine_O-méthyltransférase/Acétylsérotonine_O-méthyltransférase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ac%C3%A9tyls%C3%A9rotonine_O-m%C3%A9thyltransf%C3%A9rase</t>
+          <t>Acétylsérotonine_O-méthyltransférase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La N-acétylsérotonine O-méthyltransférase, également connue sous le nom d'ASMT, est une enzyme qui catalyse la réaction finale de la biosynthèse de la mélatonine : la conversion de la normélatonine en mélatonine. Cette réaction est intégrée dans la voie plus générale du métabolisme du tryptophane. L'enzyme catalyse également une seconde réaction dans le métabolisme du tryptophane : la conversion du 5-hydroxy-indoleacétate en 5-méthoxy-indoleacétate. L'autre enzyme qui catalyse cette réaction est la protéine de type n-acétylsérotonine-o-méthyltransférase[5].
-Chez l'homme, l'enzyme ASMT est codée par le gène ASMT pseudoautosomique. Une copie existe près des extrémités des bras courts du chromosome X et du chromosome Y[6],[7].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La N-acétylsérotonine O-méthyltransférase, également connue sous le nom d'ASMT, est une enzyme qui catalyse la réaction finale de la biosynthèse de la mélatonine : la conversion de la normélatonine en mélatonine. Cette réaction est intégrée dans la voie plus générale du métabolisme du tryptophane. L'enzyme catalyse également une seconde réaction dans le métabolisme du tryptophane : la conversion du 5-hydroxy-indoleacétate en 5-méthoxy-indoleacétate. L'autre enzyme qui catalyse cette réaction est la protéine de type n-acétylsérotonine-o-méthyltransférase.
+Chez l'homme, l'enzyme ASMT est codée par le gène ASMT pseudoautosomique. Une copie existe près des extrémités des bras courts du chromosome X et du chromosome Y,.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ac%C3%A9tyls%C3%A9rotonine_O-m%C3%A9thyltransf%C3%A9rase</t>
+          <t>Acétylsérotonine_O-méthyltransférase</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Structure et localisation des gènes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La N-acétylsérotonine O-méthyltransférase est une enzyme codée par des gènes situés sur la région pseudo-autosomique des chromosomes X et Y, et se trouve le plus abondamment dans la glande pinéale et la rétine des humains[8]. La structure de N-acétylsérotonine O-méthyltransférase est déterminée par diffusion des rayons X[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La N-acétylsérotonine O-méthyltransférase est une enzyme codée par des gènes situés sur la région pseudo-autosomique des chromosomes X et Y, et se trouve le plus abondamment dans la glande pinéale et la rétine des humains. La structure de N-acétylsérotonine O-méthyltransférase est déterminée par diffusion des rayons X.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ac%C3%A9tyls%C3%A9rotonine_O-m%C3%A9thyltransf%C3%A9rase</t>
+          <t>Acétylsérotonine_O-méthyltransférase</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Classe d'enzyme et fonction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">N-acétylsérotonine O-méthyltransférase peut être classée en trois types de groupes fonctionnels enzymatiques : les transférases, les transféreurs de groupe à un carbone et les méthyltransférases[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">N-acétylsérotonine O-méthyltransférase peut être classée en trois types de groupes fonctionnels enzymatiques : les transférases, les transféreurs de groupe à un carbone et les méthyltransférases.
 Il catalyse deux réactions dans la voie métabolique du tryptophane, et les deux peuvent être attribuées à la sérotonine. La sérotonine a de nombreux buts dans cette voie, et la N-acétylsérotonine O-méthyltransférase catalyse des réactions dans deux de ces objectifs. L'enzyme est étudiée principalement pour sa catalyse de l'étape finale de la voie de la sérotonine à la mélatonine, mais elle catalyse également l'une des réactions du processus en plusieurs étapes de la sérotonine → 5-méthoxy-indolacétate.
 </t>
         </is>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ac%C3%A9tyls%C3%A9rotonine_O-m%C3%A9thyltransf%C3%A9rase</t>
+          <t>Acétylsérotonine_O-méthyltransférase</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Organismes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">N-acétylsérotonine O-méthyltransférase se trouve à la fois chez les procaryotes et les eucaryotes. On le trouve dans les bactéries Rhodopirellula baltica et Chromobacterium violaceum. On le trouve également chez les eucaryotes suivants : Gallus gallus (poulet), Bos taurus (vache), Homo sapiens (humain), Macaca mulatta (singe rhésus) et Rattus norvegicus (rat)[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">N-acétylsérotonine O-méthyltransférase se trouve à la fois chez les procaryotes et les eucaryotes. On le trouve dans les bactéries Rhodopirellula baltica et Chromobacterium violaceum. On le trouve également chez les eucaryotes suivants : Gallus gallus (poulet), Bos taurus (vache), Homo sapiens (humain), Macaca mulatta (singe rhésus) et Rattus norvegicus (rat).
 </t>
         </is>
       </c>
